--- a/BalanceSheet/HUM_bal.xlsx
+++ b/BalanceSheet/HUM_bal.xlsx
@@ -4454,7 +4454,7 @@
         <v>-9203000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-9028000000.0</v>
+        <v>-9360000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>-9893000000.0</v>
@@ -4581,7 +4581,7 @@
         <v>7955000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>5998000000.0</v>
+        <v>5666000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>6064000000.0</v>
